--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18210" windowHeight="7320" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18210" windowHeight="7180" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$D$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$D$110</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="288">
   <si>
     <t>基本信息</t>
   </si>
@@ -1606,10 +1606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录使用publicFun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1643,6 +1639,78 @@
   </si>
   <si>
     <t>upload xhr 不send cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交时提示错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？// A：后台控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Q：下拉刷新的提示放在哪里？ 放在list-contain-inner 无法显示 因为 over-flow:scroll； </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以留位置给清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicFun post  方法提取出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻认证样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页展示完成模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route 重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定额充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用checkSession的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似发红包金额过大 的提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种历史记录的组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体现记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定下拉刷新，滚动刷新指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2024,6 +2092,66 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Frostblue\AppData\Roaming\Tencent\Users\912143546\QQ\WinTemp\RichOle\[M97MNYESICHU(CX0G3KF7S.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4953000" y="5689600"/>
+          <a:ext cx="5994400" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -2266,7 +2394,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2309,7 +2437,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2358,7 +2486,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2477,7 +2605,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2672,7 +2800,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3565,11 +3693,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3577,7 +3705,7 @@
     <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80" style="3" customWidth="1"/>
+    <col min="4" max="4" width="85" style="3" customWidth="1"/>
     <col min="5" max="5" width="22" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="84.81640625" style="3" bestFit="1" customWidth="1"/>
@@ -3745,12 +3873,12 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="B19" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>248</v>
@@ -4377,21 +4505,27 @@
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" hidden="1">
       <c r="B90" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C91" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="3" t="s">
@@ -4408,9 +4542,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" hidden="1">
       <c r="B95" s="26" t="s">
         <v>249</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="2:4" hidden="1">
@@ -4421,7 +4558,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" hidden="1">
       <c r="B97" s="7" t="s">
         <v>250</v>
       </c>
@@ -4443,9 +4580,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" hidden="1">
       <c r="B100" s="7" t="s">
         <v>252</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -4461,43 +4604,136 @@
         <v>260</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" hidden="1">
       <c r="B104" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" hidden="1">
       <c r="B106" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D106" s="3" t="s">
+    </row>
+    <row r="107" spans="2:4" hidden="1">
+      <c r="B107" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="D108" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" hidden="1">
+      <c r="B109" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="3" t="s">
+        <v>287</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D101">
+  <autoFilter ref="A1:D110">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="pendding"/>
-        <filter val="proceeding"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4513,6 +4749,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -18,18 +18,21 @@
     <sheet name="同盾查询结果" sheetId="12" r:id="rId9"/>
     <sheet name="status" sheetId="13" r:id="rId10"/>
     <sheet name="fig" sheetId="14" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId12"/>
+    <sheet name="小禾微贷" sheetId="16" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$D$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$D$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">小禾微贷!$A$5:$F$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="344">
   <si>
     <t>基本信息</t>
   </si>
@@ -1411,58 +1414,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机运营商改为必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机运营商页面显示查询状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新反欺诈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新反欺诈查询和查看结果（只有结果。。没有样式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动端更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息提交成功后返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证图标调整。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感觉还是不太理想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传图片和手机运营商未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">申请借款页面样式 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成，准备申请时跳转至条款页面后确认再提交，需条款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刷新后还需要登录 bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1527,190 +1482,461 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查看我的下线！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用标准展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脸识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻分值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击申请需经过确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个子路由！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册页面重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德地图key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status放入BUS中，每次emit status_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lend apply </t>
+  </si>
+  <si>
+    <t>keep-alive paidService history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除无用登录注册代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册，忘记密码 单独一页 Q：已注册的从注册入口注册如何控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录使用publicFun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只上传了一张附件，但是全部完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广分享注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机认证完成的条件可以提交的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击重新查询即可提交（taskId创建）2.返回失败或者成功方可提交，需判断是否近期（根据查询时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload xhr 不send cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？// A：后台控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Q：下拉刷新的提示放在哪里？ 放在list-contain-inner 无法显示 因为 over-flow:scroll； </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以留位置给清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicFun post  方法提取出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻认证样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route 重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用checkSession的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似发红包金额过大 的提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定下拉刷新，滚动刷新指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款（需填写必填信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考现金巴士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在填写好必填信息之后提交借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片，table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请借款 点击借款进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享给经纪人 /index/apply_borrow 经纪人为小禾微贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页（新用户，老用户，）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广 联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定微信流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot 显示  不受参数影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻 css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示 申请借款必须添加联系方式 QQ/TEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期不续期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期且续期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期才算逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期利息（7天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期利息（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有认证信息加上传时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻人脸/。。 回到当前页面提示 （刷新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付完成后自动返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退而不是forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable 的颜色太浅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻认证  全部确认好后再显示 图标结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重借页面确认是否已还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已还款有时间差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot 显示 #/index/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回设置成返回高一级路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻认证，人脸识别，引导回到微信。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付页面引导进入微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">登录成功后 如果授权微信，则不引导跳转 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该木有关系，窗口未刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼玛嗨的scroll 惯性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种历史记录的组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付页面的支付成功回调页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routeback css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体现记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定额充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">首页展示填写状态 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交时提示错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册的从注册入口注册如何控制？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remind 组件样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch move 带动页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remind 提示 序列化?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻认证回调地址指定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小禾微贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付完成提示后续操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次填写认证信息提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止微信页面拖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关掉小禾微贷人脸识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 设计个用户资料过期的时间</t>
+  </si>
+  <si>
+    <t>将status 拿到全局中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等mylendInfo 中platform参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>余额查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看我的下线！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用标准展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脸识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻分值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击申请需经过确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个子路由！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录注册页面重构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高德地图key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status放入BUS中，每次emit status_change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">lend apply </t>
-  </si>
-  <si>
-    <t>keep-alive paidService history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除无用登录注册代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册，忘记密码 单独一页 Q：已注册的从注册入口注册如何控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已注册的从注册入口注册如何控制？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录使用publicFun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只上传了一张附件，但是全部完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广分享注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机认证完成的条件可以提交的条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击重新查询即可提交（taskId创建）2.返回失败或者成功方可提交，需判断是否近期（根据查询时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload xhr 不send cookie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交时提示错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？// A：后台控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Q：下拉刷新的提示放在哪里？ 放在list-contain-inner 无法显示 因为 over-flow:scroll； </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以留位置给清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publicFun post  方法提取出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻认证样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页展示完成模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>route 重构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣金查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣金提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣金明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定额充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不使用checkSession的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似发红包金额过大 的提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种历史记录的组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体现记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定下拉刷新，滚动刷新指令</t>
+    <t>续期或重借的【负债调查】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端第一次登入后 需要刷新或退出重新登入才可以登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理优化支付流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ浏览记录分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中 首页显示欢迎回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选认证信息的填写状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据魔盒定时请求，查看是否完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1718,7 +1944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,15 +2071,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
@@ -1971,7 +2188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2038,13 +2255,7 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2053,10 +2264,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2089,66 +2300,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Frostblue\AppData\Roaming\Tencent\Users\912143546\QQ\WinTemp\RichOle\[M97MNYESICHU(CX0G3KF7S.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4953000" y="5689600"/>
-          <a:ext cx="5994400" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2394,7 +2545,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2437,7 +2588,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2486,7 +2637,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2605,7 +2756,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2800,7 +2951,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3532,7 +3683,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3545,159 +3696,316 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="23">
-        <v>42905</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="23">
-        <v>42905</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="23">
-        <v>42905</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="23">
-        <v>42905</v>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="23">
-        <v>42905</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="23">
-        <v>42905</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>81</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" hidden="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="23">
-        <v>42905</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>222</v>
+        <v>81</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" hidden="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="26" t="s">
+        <v>306</v>
+      </c>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="26" t="s">
+        <v>308</v>
+      </c>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:F10">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A18">
+      <formula1>$K$2:$K$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>status!$A$1:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <f>J2/G2</f>
+        <v>0.24</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="G4">
+        <v>1500</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3881,7 +4189,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -4188,7 +4496,7 @@
     </row>
     <row r="55" spans="2:4" hidden="1">
       <c r="B55" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>81</v>
@@ -4231,7 +4539,7 @@
     </row>
     <row r="60" spans="2:4" hidden="1">
       <c r="B60" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>81</v>
@@ -4302,7 +4610,7 @@
     </row>
     <row r="67" spans="2:4" hidden="1">
       <c r="B67" s="3" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>81</v>
@@ -4321,13 +4629,13 @@
     </row>
     <row r="69" spans="2:4" hidden="1">
       <c r="B69" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="2:4" hidden="1">
@@ -4392,23 +4700,23 @@
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="2:4" hidden="1">
       <c r="B77" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="28" t="s">
-        <v>228</v>
+      <c r="B78" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>118</v>
@@ -4416,31 +4724,31 @@
     </row>
     <row r="79" spans="2:4" hidden="1">
       <c r="B79" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="27" t="s">
-        <v>230</v>
+      <c r="B80" s="25" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:4" hidden="1">
       <c r="B81" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="24" t="s">
-        <v>232</v>
+      <c r="B82" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>118</v>
@@ -4448,7 +4756,7 @@
     </row>
     <row r="83" spans="2:4" hidden="1">
       <c r="B83" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>173</v>
@@ -4456,7 +4764,7 @@
     </row>
     <row r="84" spans="2:4" hidden="1">
       <c r="B84" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>173</v>
@@ -4464,7 +4772,7 @@
     </row>
     <row r="85" spans="2:4" hidden="1">
       <c r="B85" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>81</v>
@@ -4472,56 +4780,56 @@
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="8" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="2:4" hidden="1">
-      <c r="B87" s="25" t="s">
-        <v>245</v>
+      <c r="B87" s="23" t="s">
+        <v>232</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="2:4" hidden="1">
-      <c r="B88" s="25" t="s">
-        <v>246</v>
+      <c r="B88" s="23" t="s">
+        <v>233</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="2:4" hidden="1">
       <c r="B90" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>195</v>
@@ -4529,22 +4837,22 @@
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="3" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="2:4" hidden="1">
-      <c r="B95" s="26" t="s">
-        <v>249</v>
+      <c r="B95" s="24" t="s">
+        <v>236</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>81</v>
@@ -4552,7 +4860,7 @@
     </row>
     <row r="96" spans="2:4" hidden="1">
       <c r="B96" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>81</v>
@@ -4560,61 +4868,70 @@
     </row>
     <row r="97" spans="2:4" hidden="1">
       <c r="B97" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" hidden="1">
       <c r="B99" s="3" t="s">
-        <v>251</v>
+        <v>238</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="2:4" hidden="1">
       <c r="B100" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="24" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" hidden="1">
+      <c r="B101" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="3" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" hidden="1">
       <c r="B103" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="2:4" hidden="1">
       <c r="B104" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>81</v>
@@ -4622,23 +4939,23 @@
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="2:4" hidden="1">
       <c r="B106" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="2:4" hidden="1">
       <c r="B107" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>81</v>
@@ -4646,68 +4963,82 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="3" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="2:4" hidden="1">
       <c r="B109" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" hidden="1">
       <c r="B110" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" hidden="1">
       <c r="B112" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4">
+        <v>261</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" hidden="1">
       <c r="B113" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
+        <v>262</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" hidden="1">
       <c r="B114" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="3" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" s="3" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="3" t="s">
-        <v>286</v>
-      </c>
+      <c r="B117" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117" s="7"/>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
+      <c r="B118" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="2:4" hidden="1">
       <c r="B119" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>81</v>
@@ -4715,41 +5046,255 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="2:4" hidden="1">
+      <c r="B121" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" hidden="1">
+      <c r="B122" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" hidden="1">
+      <c r="B123" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" hidden="1">
+      <c r="B124" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" hidden="1">
+      <c r="B125" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D120"/>
-    </row>
-    <row r="121" spans="2:4">
-      <c r="B121" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4">
-      <c r="B122" s="3" t="s">
-        <v>287</v>
+      <c r="C125" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="B129" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="B130" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1">
+      <c r="B133" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="B134" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="B136" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1">
+      <c r="B137" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1">
+      <c r="A142" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1">
+      <c r="A144" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="B145" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="B148" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="B149" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="B151" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="B152" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D110">
+  <autoFilter ref="A1:D145">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="pendding"/>
+        <filter val="proceeding"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A56:A1048576">
-      <formula1>$K$2:$K$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="D64" r:id="rId1" location="/apply_borrow?uniqueId=gds333"/>
     <hyperlink ref="D75" location="fig!A1" display="图"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -4868,27 +5413,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="12" spans="2:8">
       <c r="E12" t="s">
@@ -4918,36 +5463,36 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="J2" s="29" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="J2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="10" spans="2:12">
       <c r="E10" t="s">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4005,7 +4005,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18210" windowHeight="7180" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18210" windowHeight="6580" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="proceding" sheetId="2" r:id="rId2"/>
     <sheet name="图图图" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="颜色们" sheetId="5" state="hidden" r:id="rId4"/>
@@ -15,15 +15,18 @@
     <sheet name="放贷人发起" sheetId="8" state="hidden" r:id="rId6"/>
     <sheet name="借款人发起" sheetId="9" state="hidden" r:id="rId7"/>
     <sheet name="那些感觉帮帮哒需求" sheetId="11" r:id="rId8"/>
-    <sheet name="同盾查询结果" sheetId="12" r:id="rId9"/>
-    <sheet name="status" sheetId="13" r:id="rId10"/>
-    <sheet name="fig" sheetId="14" r:id="rId11"/>
+    <sheet name="同盾查询结果" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="status" sheetId="13" state="hidden" r:id="rId10"/>
+    <sheet name="fig" sheetId="14" state="hidden" r:id="rId11"/>
     <sheet name="小禾微贷" sheetId="16" r:id="rId12"/>
     <sheet name="Sheet3" sheetId="17" r:id="rId13"/>
+    <sheet name="推广" sheetId="18" state="hidden" r:id="rId14"/>
+    <sheet name="请求地址" sheetId="19" r:id="rId15"/>
+    <sheet name="Sheet5" sheetId="20" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$D$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$D$153</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">小禾微贷!$A$5:$F$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="377">
   <si>
     <t>基本信息</t>
   </si>
@@ -1486,457 +1489,583 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人脸识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻分值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击申请需经过确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个子路由！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册页面重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德地图key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status放入BUS中，每次emit status_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lend apply </t>
+  </si>
+  <si>
+    <t>keep-alive paidService history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除无用登录注册代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册，忘记密码 单独一页 Q：已注册的从注册入口注册如何控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录使用publicFun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广分享注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机认证完成的条件可以提交的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击重新查询即可提交（taskId创建）2.返回失败或者成功方可提交，需判断是否近期（根据查询时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload xhr 不send cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？// A：后台控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Q：下拉刷新的提示放在哪里？ 放在list-contain-inner 无法显示 因为 over-flow:scroll； </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以留位置给清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicFun post  方法提取出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻认证样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route 重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用checkSession的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似发红包金额过大 的提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定下拉刷新，滚动刷新指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款（需填写必填信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考现金巴士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在填写好必填信息之后提交借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片，table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请借款 点击借款进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享给经纪人 /index/apply_borrow 经纪人为小禾微贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页（新用户，老用户，）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广 联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定微信流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot 显示  不受参数影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻 css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示 申请借款必须添加联系方式 QQ/TEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期不续期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期且续期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期才算逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期利息（7天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期利息（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有认证信息加上传时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻人脸/。。 回到当前页面提示 （刷新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付完成后自动返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退而不是forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable 的颜色太浅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻认证  全部确认好后再显示 图标结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重借页面确认是否已还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已还款有时间差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot 显示 #/index/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回设置成返回高一级路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻认证，人脸识别，引导回到微信。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付页面引导进入微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">登录成功后 如果授权微信，则不引导跳转 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该木有关系，窗口未刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼玛嗨的scroll 惯性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种历史记录的组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付页面的支付成功回调页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routeback css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体现记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定额充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">首页展示填写状态 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交时提示错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册的从注册入口注册如何控制？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remind 组件样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch move 带动页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻认证回调地址指定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小禾微贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付完成提示后续操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次填写认证信息提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止微信页面拖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关掉小禾微贷人脸识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 设计个用户资料过期的时间</t>
+  </si>
+  <si>
+    <t>将status 拿到全局中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等mylendInfo 中platform参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期或重借的【负债调查】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端第一次登入后 需要刷新或退出重新登入才可以登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理优化支付流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ浏览记录分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中 首页显示欢迎回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选认证信息的填写状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据魔盒定时请求，查看是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理/分销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→→→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>充值操作</t>
+  </si>
+  <si>
+    <t>↗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">↖↗↘↙↓↑←→ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↘</t>
+  </si>
+  <si>
+    <t>所有佣金相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下线相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没有数据，没有做任何格式的处理</t>
+  </si>
+  <si>
+    <t>点进去看，有没有什么格式…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→→→→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个右边的悬浮菜单在禾掌柜里 就QQ和电话、微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remind 提示 序列化?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>费用标准展示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人脸识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻分值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击申请需经过确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个子路由！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录注册页面重构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高德地图key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status放入BUS中，每次emit status_change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">lend apply </t>
-  </si>
-  <si>
-    <t>keep-alive paidService history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除无用登录注册代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册，忘记密码 单独一页 Q：已注册的从注册入口注册如何控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录使用publicFun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只上传了一张附件，但是全部完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推广分享注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机认证完成的条件可以提交的条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击重新查询即可提交（taskId创建）2.返回失败或者成功方可提交，需判断是否近期（根据查询时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload xhr 不send cookie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？// A：后台控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Q：下拉刷新的提示放在哪里？ 放在list-contain-inner 无法显示 因为 over-flow:scroll； </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以留位置给清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publicFun post  方法提取出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻认证样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>route 重构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣金查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣金提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不使用checkSession的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似发红包金额过大 的提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定下拉刷新，滚动刷新指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击新用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款（需填写必填信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考现金巴士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在填写好必填信息之后提交借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>about us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片，table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请借款 点击借款进入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享给经纪人 /index/apply_borrow 经纪人为小禾微贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页（新用户，老用户，）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广 联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定微信流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foot 显示  不受参数影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻 css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示 申请借款必须添加联系方式 QQ/TEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期不续期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期且续期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>续期才算逾期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>续期金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>续期利息（7天）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常利息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>续期利息（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>续期次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有认证信息加上传时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻人脸/。。 回到当前页面提示 （刷新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order/status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付完成后自动返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后退而不是forward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disable 的颜色太浅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻认证  全部确认好后再显示 图标结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重借页面确认是否已还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已还款有时间差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foot 显示 #/index/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回设置成返回高一级路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻认证，人脸识别，引导回到微信。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付页面引导进入微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">登录成功后 如果授权微信，则不引导跳转 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该木有关系，窗口未刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼玛嗨的scroll 惯性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种历史记录的组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付页面的支付成功回调页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>routeback css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体现记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定额充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣金明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">首页展示填写状态 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交时提示错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已注册的从注册入口注册如何控制？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remind 组件样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touch move 带动页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remind 提示 序列化?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻认证回调地址指定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小禾微贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付完成提示后续操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次填写认证信息提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻止微信页面拖动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关掉小禾微贷人脸识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 设计个用户资料过期的时间</t>
-  </si>
-  <si>
-    <t>将status 拿到全局中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等mylendInfo 中platform参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>续期或重借的【负债调查】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端第一次登入后 需要刷新或退出重新登入才可以登入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理优化支付流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ浏览记录分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核中 首页显示欢迎回来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选认证信息的填写状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据魔盒定时请求，查看是否完成</t>
+    <t>main.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadsinglepic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_apply.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/lendApply/loanRecords  </t>
+  </si>
+  <si>
+    <t>添加参数：借贷人手机；添加状态：发回重审，永久拒绝；添加字段：审核意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改/添加内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口暂定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人放贷前申请成为放贷人流程 /index/apply_lend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/apply_lend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请入驻贷款超市，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证上传一张 即通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1944,7 +2073,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2078,8 +2207,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2140,6 +2278,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2188,7 +2332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2278,6 +2422,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2994,6 +3162,277 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130362</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>51173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348128</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>178504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2613960" y="6505761"/>
+          <a:ext cx="2004356" cy="2816743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346633</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>291348</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>39705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5399738" y="6340290"/>
+          <a:ext cx="2242664" cy="2843415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>81429</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>159497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>102348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8006977" y="10558556"/>
+          <a:ext cx="2190377" cy="2452968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>137085</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>18675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>59933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12152406" y="4395321"/>
+          <a:ext cx="2161239" cy="2836377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>107203</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>136713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>35113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12092641" y="7846360"/>
+          <a:ext cx="2385357" cy="2946400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>93382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15520148" y="7918823"/>
+          <a:ext cx="2267324" cy="2932206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>153683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15609049" y="4315759"/>
+          <a:ext cx="2043951" cy="3009689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3700,7 +4139,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3715,27 +4154,27 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
         <v>268</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>269</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>270</v>
-      </c>
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3755,7 +4194,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>81</v>
@@ -3765,7 +4204,7 @@
     <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="3"/>
       <c r="B7" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>81</v>
@@ -3775,31 +4214,31 @@
     <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="3"/>
       <c r="B8" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>81</v>
@@ -3809,7 +4248,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>81</v>
@@ -3819,17 +4258,17 @@
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3837,7 +4276,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3900,7 +4339,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3909,29 +4348,30 @@
     <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" t="s">
         <v>287</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" t="s">
         <v>289</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>290</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>291</v>
-      </c>
-      <c r="I1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3951,7 +4391,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -3976,20 +4416,584 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" t="s">
         <v>295</v>
       </c>
-      <c r="F9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" t="s">
-        <v>297</v>
-      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A16:AD73"/>
+  <sheetViews>
+    <sheetView showFormulas="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V72" sqref="V72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.6328125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="14" width="5.6328125" style="30"/>
+    <col min="15" max="19" width="1.26953125" style="30" customWidth="1"/>
+    <col min="20" max="21" width="5.6328125" style="30"/>
+    <col min="22" max="24" width="2" style="30" customWidth="1"/>
+    <col min="25" max="25" width="3.90625" style="30" customWidth="1"/>
+    <col min="26" max="26" width="4.54296875" style="30" customWidth="1"/>
+    <col min="27" max="16384" width="5.6328125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="13:13">
+      <c r="M16" s="30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="25:30">
+      <c r="AA24" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+    </row>
+    <row r="28" spans="25:30">
+      <c r="Z28" s="32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="25:30">
+      <c r="Y29" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z29" s="30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37" s="33"/>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="S40" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="R41" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="Q42" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="G43" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="P43" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="G44" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="O44" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA44" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="K45" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" s="32"/>
+      <c r="N45" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="O45" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="K46" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" s="32"/>
+      <c r="N46" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="P46" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="K47" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L47" s="32"/>
+      <c r="N47" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q47" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="K48" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" s="32"/>
+      <c r="N48" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="R48" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="K49" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" s="32"/>
+      <c r="N49" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="S49" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z49" s="32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="K50" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L50" s="32"/>
+      <c r="N50" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y50" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z50" s="30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="K51" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" s="32"/>
+      <c r="N51" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="K52" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L52" s="32"/>
+      <c r="N52" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="K53" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="N53" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="K54" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="N54" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="K55" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="N55" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="K56" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="N56" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="K57" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="N57" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="K58" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="K59" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L59" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="N59" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="N60" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="N61" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="N62" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="N63" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="N64" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="N65" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="N66" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="M67" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="N67" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="O67" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q67" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="R67" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="S67" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="T67" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="U67" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A37:B52"/>
+    <mergeCell ref="A60:B73"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="AA44:AD44"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4001,11 +5005,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4189,7 +5193,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -4610,7 +5614,7 @@
     </row>
     <row r="67" spans="2:4" hidden="1">
       <c r="B67" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>81</v>
@@ -4778,53 +5782,56 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" hidden="1">
       <c r="B86" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="2:4" hidden="1">
       <c r="B87" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="2:4" hidden="1">
       <c r="B88" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" hidden="1">
       <c r="B89" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="2:4" hidden="1">
       <c r="B90" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -4842,17 +5849,20 @@
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" hidden="1">
       <c r="B94" s="3" t="s">
-        <v>230</v>
+        <v>360</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="2:4" hidden="1">
       <c r="B95" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>81</v>
@@ -4860,7 +5870,7 @@
     </row>
     <row r="96" spans="2:4" hidden="1">
       <c r="B96" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>81</v>
@@ -4868,24 +5878,24 @@
     </row>
     <row r="97" spans="2:4" hidden="1">
       <c r="B97" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="2:4" hidden="1">
       <c r="B99" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>84</v>
@@ -4893,37 +5903,37 @@
     </row>
     <row r="100" spans="2:4" hidden="1">
       <c r="B100" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="2:4" hidden="1">
       <c r="B101" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="2:4" hidden="1">
       <c r="B103" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>81</v>
@@ -4931,31 +5941,34 @@
     </row>
     <row r="104" spans="2:4" hidden="1">
       <c r="B104" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" hidden="1">
       <c r="B105" s="3" t="s">
-        <v>250</v>
+        <v>361</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="2:4" hidden="1">
       <c r="B106" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="2:4" hidden="1">
       <c r="B107" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>81</v>
@@ -4963,15 +5976,15 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="2:4" hidden="1">
       <c r="B109" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>81</v>
@@ -4979,7 +5992,7 @@
     </row>
     <row r="110" spans="2:4" hidden="1">
       <c r="B110" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>81</v>
@@ -4987,12 +6000,12 @@
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="2:4" hidden="1">
       <c r="B112" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>193</v>
@@ -5000,7 +6013,7 @@
     </row>
     <row r="113" spans="2:4" hidden="1">
       <c r="B113" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>81</v>
@@ -5008,7 +6021,7 @@
     </row>
     <row r="114" spans="2:4" hidden="1">
       <c r="B114" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>81</v>
@@ -5016,29 +6029,29 @@
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="B117" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C117" s="7"/>
     </row>
     <row r="118" spans="2:4">
       <c r="B118" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C118" s="7"/>
     </row>
     <row r="119" spans="2:4" hidden="1">
       <c r="B119" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>81</v>
@@ -5046,13 +6059,13 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D120"/>
     </row>
     <row r="121" spans="2:4" hidden="1">
       <c r="B121" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>81</v>
@@ -5060,7 +6073,7 @@
     </row>
     <row r="122" spans="2:4" hidden="1">
       <c r="B122" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>81</v>
@@ -5068,7 +6081,7 @@
     </row>
     <row r="123" spans="2:4" hidden="1">
       <c r="B123" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>81</v>
@@ -5076,7 +6089,7 @@
     </row>
     <row r="124" spans="2:4" hidden="1">
       <c r="B124" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>81</v>
@@ -5084,7 +6097,7 @@
     </row>
     <row r="125" spans="2:4" hidden="1">
       <c r="B125" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>81</v>
@@ -5092,117 +6105,120 @@
     </row>
     <row r="126" spans="2:4">
       <c r="B126" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="B128" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="B132" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:4" hidden="1">
       <c r="B133" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="B134" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:4" hidden="1">
       <c r="B137" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" hidden="1">
       <c r="B138" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" s="3" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="1:4" hidden="1">
       <c r="A142" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>81</v>
@@ -5210,15 +6226,15 @@
     </row>
     <row r="143" spans="1:4">
       <c r="B143" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:4" hidden="1">
       <c r="A144" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>81</v>
@@ -5226,18 +6242,18 @@
     </row>
     <row r="145" spans="1:4">
       <c r="B145" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1">
       <c r="A146" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>84</v>
@@ -5245,42 +6261,55 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="B148" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1">
       <c r="B149" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="B151" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="B152" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="B153" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="B154" s="3" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D145">
+  <autoFilter ref="A1:D153">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="pendding"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -2285,7 +2285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2323,6 +2323,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2332,7 +2358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2445,6 +2471,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5005,11 +5037,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -6307,6 +6339,10 @@
       <c r="B154" s="3" t="s">
         <v>376</v>
       </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="38"/>
+      <c r="C161" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D153">
@@ -6331,7 +6367,7 @@
           <x14:formula1>
             <xm:f>status!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C160 C162:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18210" windowHeight="6580" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -18,15 +18,18 @@
     <sheet name="同盾查询结果" sheetId="12" state="hidden" r:id="rId9"/>
     <sheet name="status" sheetId="13" state="hidden" r:id="rId10"/>
     <sheet name="fig" sheetId="14" state="hidden" r:id="rId11"/>
-    <sheet name="小禾微贷" sheetId="16" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="17" r:id="rId13"/>
+    <sheet name="小禾微贷" sheetId="16" state="hidden" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="17" state="hidden" r:id="rId13"/>
     <sheet name="推广" sheetId="18" state="hidden" r:id="rId14"/>
     <sheet name="请求地址" sheetId="19" r:id="rId15"/>
-    <sheet name="Sheet5" sheetId="20" r:id="rId16"/>
+    <sheet name="Sheet5" sheetId="20" state="hidden" r:id="rId16"/>
+    <sheet name="小禾 loan_bill 状态" sheetId="21" state="hidden" r:id="rId17"/>
+    <sheet name="Sheet4" sheetId="23" r:id="rId18"/>
+    <sheet name="贷款超市发起请求" sheetId="24" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$D$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$K$180</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">小禾微贷!$A$5:$F$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="429">
   <si>
     <t>基本信息</t>
   </si>
@@ -1351,9 +1354,6 @@
   </si>
   <si>
     <t>proceeding</t>
-  </si>
-  <si>
-    <t>proceeding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1888,42 +1888,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>将status 拿到全局中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等mylendInfo 中platform参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续期或重借的【负债调查】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端第一次登入后 需要刷新或退出重新登入才可以登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理优化支付流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ浏览记录分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中 首页显示欢迎回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选认证信息的填写状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理/分销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→→→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>充值操作</t>
+  </si>
+  <si>
+    <t>↗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">↖↗↘↙↓↑←→ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↘</t>
+  </si>
+  <si>
+    <t>所有佣金相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下线相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没有数据，没有做任何格式的处理</t>
+  </si>
+  <si>
+    <t>点进去看，有没有什么格式…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→→→→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个右边的悬浮菜单在禾掌柜里 就QQ和电话、微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remind 提示 序列化?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用标准展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只上传了一张附件，但是全部完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadsinglepic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_apply.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/lendApply/loanRecords  </t>
+  </si>
+  <si>
+    <t>添加参数：借贷人手机；添加状态：发回重审，永久拒绝；添加字段：审核意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改/添加内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口暂定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人放贷前申请成为放贷人流程 /index/apply_lend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/apply_lend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请入驻贷款超市，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证上传一张 即通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 设计个用户资料过期的时间</t>
-  </si>
-  <si>
-    <t>将status 拿到全局中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等mylendInfo 中platform参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>续期或重借的【负债调查】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端第一次登入后 需要刷新或退出重新登入才可以登入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理优化支付流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ浏览记录分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核中 首页显示欢迎回来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选认证信息的填写状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re-fill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill-status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auditing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=4 L=*</t>
+  </si>
+  <si>
+    <t>L=0 A=0||1</t>
+  </si>
+  <si>
+    <t>L=0 A=NULL</t>
+  </si>
+  <si>
+    <t>L=* A=2</t>
+  </si>
+  <si>
+    <t>L=* A=1||0</t>
+  </si>
+  <si>
+    <t>A!=(3,4)</t>
+  </si>
+  <si>
+    <t>L=1 A!=(4&amp;2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件里不可以有remind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录提示去掉 小禾&amp;禾掌柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻600 花呗500 限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app.vue 独自checkSession 中回调 配置Wxconfig, 进入route 根据route name 判断是否自定URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信分享 checkSession中配置无效，setInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貌似解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkFilled after post successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款超市 验证条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款超市 头像上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lend_apply 页面 如果已成为贷款超市，显示list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1931,141 +2172,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理/分销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>→→→</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>↑</t>
-  </si>
-  <si>
-    <t>充值操作</t>
-  </si>
-  <si>
-    <t>↗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">↖↗↘↙↓↑←→ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>↘</t>
-  </si>
-  <si>
-    <t>所有佣金相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下线相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时没有数据，没有做任何格式的处理</t>
-  </si>
-  <si>
-    <t>点进去看，有没有什么格式…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>→→→→</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一个右边的悬浮菜单在禾掌柜里 就QQ和电话、微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remind 提示 序列化?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用标准展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只上传了一张附件，但是全部完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uploadsinglepic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index_apply.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/lendApply/loanRecords  </t>
-  </si>
-  <si>
-    <t>添加参数：借贷人手机；添加状态：发回重审，永久拒绝；添加字段：审核意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改/添加内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口暂定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人放贷前申请成为放贷人流程 /index/apply_lend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/index/apply_lend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请入驻贷款超市，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证上传一张 即通过</t>
+    <t>essential / optional config 合并，内部表示是否必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并之后有问题啊。。。 首页无法获取啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款超市 提交页面 滚动问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过贷款超市发起申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option 组件用原生，样式重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请借款时 判断是贷款超市，显示贷款超市信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过marketId进入，显示贷款超市的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借贷宝，今借到，无忧借条，速速借及其它 放款平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人分享放贷，提交参数 标识分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据魔盒的callback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session Storage 解决芝麻和数据魔盒的跳转问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_info 开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reapply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyRecord.status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1/2/3/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符 路由，取代 query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止贷款超市重复申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负债调查 必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定贷款超市的申请结果 和意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放贷超市 option 10px以下字体样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply borrow 里面加入是否有申请的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个项目填写完成后，check了所有认证项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2073,7 +2280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2213,6 +2420,23 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2358,7 +2582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2440,26 +2664,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2478,6 +2687,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3465,6 +3710,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>595705</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Frostblue\Documents\Tencent Files\912143546\Image\Group\Image1\592N{M5NVYQ4{(C79U%B3NR.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="3034104" cy="5391150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3752,6 +4057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4102,6 +4408,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4135,7 +4442,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4151,6 +4458,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4167,7 +4475,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet12" filterMode="1"/>
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4186,27 +4494,27 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
         <v>266</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>267</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>268</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>269</v>
-      </c>
-      <c r="F2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" t="s">
         <v>271</v>
-      </c>
-      <c r="B3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4226,7 +4534,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>81</v>
@@ -4236,7 +4544,7 @@
     <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="3"/>
       <c r="B7" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>81</v>
@@ -4246,31 +4554,31 @@
     <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="3"/>
       <c r="B8" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>81</v>
@@ -4280,7 +4588,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>81</v>
@@ -4290,17 +4598,17 @@
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4308,7 +4616,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4368,6 +4676,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4385,25 +4694,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s">
         <v>284</v>
       </c>
-      <c r="B1" t="s">
-        <v>285</v>
-      </c>
       <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" t="s">
         <v>287</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>288</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>289</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
-      </c>
-      <c r="J1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4423,7 +4732,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -4448,19 +4757,19 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" t="s">
         <v>294</v>
-      </c>
-      <c r="E9" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4472,6 +4781,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A16:AD73"/>
   <sheetViews>
     <sheetView showFormulas="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4480,387 +4790,387 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="14" width="5.6328125" style="30"/>
-    <col min="15" max="19" width="1.26953125" style="30" customWidth="1"/>
-    <col min="20" max="21" width="5.6328125" style="30"/>
-    <col min="22" max="24" width="2" style="30" customWidth="1"/>
-    <col min="25" max="25" width="3.90625" style="30" customWidth="1"/>
-    <col min="26" max="26" width="4.54296875" style="30" customWidth="1"/>
-    <col min="27" max="16384" width="5.6328125" style="30"/>
+    <col min="1" max="14" width="5.6328125" style="27"/>
+    <col min="15" max="19" width="1.26953125" style="27" customWidth="1"/>
+    <col min="20" max="21" width="5.6328125" style="27"/>
+    <col min="22" max="24" width="2" style="27" customWidth="1"/>
+    <col min="25" max="25" width="3.90625" style="27" customWidth="1"/>
+    <col min="26" max="26" width="4.54296875" style="27" customWidth="1"/>
+    <col min="27" max="16384" width="5.6328125" style="27"/>
   </cols>
   <sheetData>
     <row r="16" spans="13:13">
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="25:30">
+      <c r="AA24" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
+    </row>
+    <row r="28" spans="25:30">
+      <c r="Z28" s="28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="25:30">
-      <c r="AA24" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-    </row>
-    <row r="28" spans="25:30">
-      <c r="Z28" s="32" t="s">
+    <row r="29" spans="25:30">
+      <c r="Y29" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z29" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="45"/>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="S40" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="R41" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="Q42" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="G43" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="G44" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA44" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="K45" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" s="28"/>
+      <c r="N45" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="K46" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L46" s="28"/>
+      <c r="N46" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="K47" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L47" s="28"/>
+      <c r="N47" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="K48" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" s="28"/>
+      <c r="N48" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="R48" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="K49" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L49" s="28"/>
+      <c r="N49" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="S49" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z49" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="K50" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L50" s="28"/>
+      <c r="N50" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y50" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z50" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="K51" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L51" s="28"/>
+      <c r="N51" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="K52" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L52" s="28"/>
+      <c r="N52" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="K53" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="K54" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="K55" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="K56" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="N56" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="K57" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="N57" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="K58" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="K59" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L59" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="N60" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="N61" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="N62" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="N63" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="N64" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="N65" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="N66" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="M67" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="P67" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="R67" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="S67" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="T67" s="27" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="29" spans="25:30">
-      <c r="Y29" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z29" s="30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
-      <c r="A37" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="B37" s="33"/>
-    </row>
-    <row r="38" spans="1:30">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-    </row>
-    <row r="39" spans="1:30">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-    </row>
-    <row r="40" spans="1:30">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="S40" s="30" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="R41" s="30" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="Q42" s="30" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="G43" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="K43" s="30" t="s">
+      <c r="U67" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="P43" s="30" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="G44" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="J44" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="K44" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="O44" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA44" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-    </row>
-    <row r="45" spans="1:30">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="K45" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L45" s="32"/>
-      <c r="N45" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="O45" s="30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="K46" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L46" s="32"/>
-      <c r="N46" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="P46" s="30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="K47" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L47" s="32"/>
-      <c r="N47" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q47" s="30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="K48" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L48" s="32"/>
-      <c r="N48" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="R48" s="30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="K49" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L49" s="32"/>
-      <c r="N49" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="S49" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z49" s="32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="K50" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L50" s="32"/>
-      <c r="N50" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y50" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z50" s="30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="K51" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L51" s="32"/>
-      <c r="N51" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="K52" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L52" s="32"/>
-      <c r="N52" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="K53" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="N53" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="K54" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="N54" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="K55" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="N55" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="K56" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="N56" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="K57" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="N57" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="K58" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="N58" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="K59" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L59" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="N59" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="B60" s="33"/>
-      <c r="N60" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="N61" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="N62" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="N63" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="N64" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="N65" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="N66" s="34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="M67" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="N67" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="O67" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="P67" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q67" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="R67" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="S67" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="T67" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="U67" s="32" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4878,10 +5188,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4891,22 +5202,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4917,6 +5228,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4931,28 +5243,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1" s="36"/>
+      <c r="B1" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" s="37" t="s">
         <v>370</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4977,22 +5289,22 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5034,24 +5346,145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="15.6328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K161"/>
+  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="3.81640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="85" style="3" customWidth="1"/>
     <col min="7" max="7" width="84.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5066,7 +5499,13 @@
       <c r="C1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5077,6 +5516,8 @@
       <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="K2" t="s">
         <v>85</v>
       </c>
@@ -5088,6 +5529,8 @@
       <c r="C3" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="K3" t="s">
         <v>83</v>
       </c>
@@ -5099,6 +5542,8 @@
       <c r="C4" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="K4" t="s">
         <v>89</v>
       </c>
@@ -5110,6 +5555,8 @@
       <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:11" hidden="1">
       <c r="B6" s="3" t="s">
@@ -5118,6 +5565,8 @@
       <c r="C6" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:11" hidden="1">
       <c r="B7" s="3" t="s">
@@ -5126,6 +5575,8 @@
       <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:11" hidden="1">
       <c r="B8" s="3" t="s">
@@ -5134,6 +5585,8 @@
       <c r="C8" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:11" hidden="1">
       <c r="B9" s="3" t="s">
@@ -5142,6 +5595,8 @@
       <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:11" hidden="1">
       <c r="B10" s="8" t="s">
@@ -5150,6 +5605,8 @@
       <c r="C10" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:11" hidden="1">
       <c r="B11" s="3" t="s">
@@ -5158,6 +5615,8 @@
       <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:11" hidden="1">
       <c r="B12" s="3" t="s">
@@ -5166,6 +5625,8 @@
       <c r="C12" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:11" hidden="1">
       <c r="B13" s="15" t="s">
@@ -5174,6 +5635,8 @@
       <c r="C13" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:11" hidden="1">
       <c r="B14" s="3" t="s">
@@ -5182,6 +5645,8 @@
       <c r="C14" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:11" hidden="1">
       <c r="B15" s="3" t="s">
@@ -5190,6 +5655,8 @@
       <c r="C15" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:11" hidden="1">
       <c r="B16" s="3" t="s">
@@ -5198,6 +5665,8 @@
       <c r="C16" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:6" hidden="1">
       <c r="B17" s="3" t="s">
@@ -5206,7 +5675,8 @@
       <c r="C17" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:6" hidden="1">
       <c r="B18" s="18" t="s">
@@ -5215,7 +5685,8 @@
       <c r="C18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:6" hidden="1">
       <c r="B19" s="18" t="s">
@@ -5224,10 +5695,11 @@
       <c r="C19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="3" t="s">
@@ -5239,7 +5711,8 @@
       <c r="C20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:6" hidden="1">
       <c r="B21" s="8" t="s">
@@ -5248,7 +5721,8 @@
       <c r="C21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:6" hidden="1">
       <c r="B22" s="8" t="s">
@@ -5257,7 +5731,8 @@
       <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:6" hidden="1">
       <c r="B23" s="17" t="s">
@@ -5266,6 +5741,8 @@
       <c r="C23" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="3" t="s">
@@ -5277,7 +5754,9 @@
       <c r="C24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5288,6 +5767,8 @@
       <c r="C25" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:6" hidden="1">
       <c r="B26" s="7" t="s">
@@ -5296,6 +5777,8 @@
       <c r="C26" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:6" hidden="1">
       <c r="B27" s="8" t="s">
@@ -5304,6 +5787,8 @@
       <c r="C27" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:6" hidden="1">
       <c r="B28" s="8" t="s">
@@ -5312,6 +5797,8 @@
       <c r="C28" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" hidden="1">
       <c r="B29" s="8" t="s">
@@ -5320,6 +5807,8 @@
       <c r="C29" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:6" hidden="1">
       <c r="B30" s="8" t="s">
@@ -5328,6 +5817,8 @@
       <c r="C30" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:6" hidden="1">
       <c r="B31" s="8" t="s">
@@ -5336,6 +5827,8 @@
       <c r="C31" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:6" hidden="1">
       <c r="B32" s="8" t="s">
@@ -5344,1019 +5837,1501 @@
       <c r="C32" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" hidden="1">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
       <c r="B33" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" hidden="1">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
       <c r="B34" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" hidden="1">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1">
       <c r="B35" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" hidden="1">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
       <c r="B36" s="15" t="s">
         <v>120</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1">
+    <row r="37" spans="2:6" hidden="1">
       <c r="B37" s="13" t="s">
         <v>123</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1">
+    <row r="38" spans="2:6" hidden="1">
       <c r="B38" s="13" t="s">
         <v>177</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" hidden="1">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1">
       <c r="B39" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" hidden="1">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" hidden="1">
       <c r="B40" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" hidden="1">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1">
       <c r="B41" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" hidden="1">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" hidden="1">
       <c r="B42" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1">
+    <row r="43" spans="2:6" hidden="1">
       <c r="B43" s="16" t="s">
         <v>166</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" hidden="1">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" hidden="1">
       <c r="B44" s="14" t="s">
         <v>130</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" hidden="1">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" hidden="1">
       <c r="B45" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" hidden="1">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" hidden="1">
       <c r="B46" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" hidden="1">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1">
       <c r="B47" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" hidden="1">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1">
       <c r="B48" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" hidden="1">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1">
       <c r="B49" s="15" t="s">
         <v>160</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" hidden="1">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1">
       <c r="B50" s="15" t="s">
         <v>161</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="51" spans="2:4">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1">
       <c r="B51" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" hidden="1">
+        <v>205</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1">
       <c r="B52" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1">
+    <row r="53" spans="2:6" hidden="1">
       <c r="B53" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1">
       <c r="B54" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1">
+    <row r="55" spans="2:6" hidden="1">
       <c r="B55" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" hidden="1">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1">
       <c r="B56" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" hidden="1">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1">
       <c r="B57" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" hidden="1">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1">
       <c r="B58" s="18" t="s">
         <v>180</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" hidden="1">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1">
       <c r="B59" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" hidden="1">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1">
       <c r="B60" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" hidden="1">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" hidden="1">
       <c r="B61" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:6" hidden="1">
       <c r="B62" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" hidden="1">
+        <v>81</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1">
       <c r="B63" s="20" t="s">
         <v>189</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" hidden="1">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1">
       <c r="B64" s="20" t="s">
         <v>185</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" hidden="1">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" hidden="1">
       <c r="B65" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" hidden="1">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" hidden="1">
       <c r="B66" s="21" t="s">
         <v>187</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1">
+    <row r="67" spans="2:6" hidden="1">
       <c r="B67" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" hidden="1">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1">
       <c r="B68" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" hidden="1">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1">
       <c r="B69" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" hidden="1">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1">
       <c r="B70" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" hidden="1">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" hidden="1">
       <c r="B71" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="3" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" hidden="1">
-      <c r="B72" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="C74" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="3" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" hidden="1">
-      <c r="B74" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" hidden="1">
-      <c r="B75" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D75" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
       <c r="B76" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" hidden="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" hidden="1">
       <c r="B77" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1">
+    <row r="79" spans="2:6" hidden="1">
       <c r="B79" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="80" spans="2:4">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:6">
       <c r="B80" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" hidden="1">
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="22" t="s">
-        <v>220</v>
-      </c>
       <c r="C82" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" hidden="1">
+        <v>84</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="2:6" hidden="1">
       <c r="B83" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" hidden="1">
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:6" hidden="1">
       <c r="B84" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" hidden="1">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="2:6" hidden="1">
       <c r="B85" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" hidden="1">
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="2:6" hidden="1">
       <c r="B86" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="23" t="s">
         <v>230</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" hidden="1">
-      <c r="B87" s="23" t="s">
-        <v>231</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" hidden="1">
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" hidden="1">
       <c r="B88" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" hidden="1">
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" hidden="1">
       <c r="B89" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" hidden="1">
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:6" hidden="1">
       <c r="B90" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
+    </row>
+    <row r="91" spans="2:6" hidden="1">
       <c r="B91" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
+        <v>81</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:6" hidden="1">
       <c r="B92" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
+        <v>227</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:6">
       <c r="B93" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" hidden="1">
       <c r="B94" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" hidden="1">
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:6" hidden="1">
       <c r="B95" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="2:6" hidden="1">
+      <c r="B96" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:6" hidden="1">
+      <c r="B97" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" hidden="1">
-      <c r="B96" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" hidden="1">
-      <c r="B97" s="7" t="s">
+      <c r="C97" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="2:6" hidden="1">
+      <c r="B99" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D98" s="7"/>
-    </row>
-    <row r="99" spans="2:4" hidden="1">
-      <c r="B99" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" hidden="1">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:6" hidden="1">
       <c r="B100" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" hidden="1">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" hidden="1">
       <c r="B101" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
       <c r="B102" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" hidden="1">
+        <v>320</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" hidden="1">
       <c r="B103" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" hidden="1">
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:6" hidden="1">
       <c r="B104" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" hidden="1">
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:6" hidden="1">
       <c r="B105" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" hidden="1">
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:6" hidden="1">
       <c r="B106" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D106" s="3" t="s">
+    </row>
+    <row r="107" spans="2:6" hidden="1">
+      <c r="B107" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" hidden="1">
-      <c r="B107" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="C107" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="108" spans="2:4">
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:6">
       <c r="B108" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D108" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" hidden="1">
+      <c r="B109" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" hidden="1">
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:6" hidden="1">
+      <c r="B110" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" hidden="1">
-      <c r="B110" s="3" t="s">
+      <c r="C110" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:6" hidden="1">
+      <c r="B111" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:6" hidden="1">
+      <c r="B112" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" hidden="1">
-      <c r="B112" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" hidden="1">
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:6" hidden="1">
       <c r="B113" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:6" hidden="1">
+      <c r="B114" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" hidden="1">
-      <c r="B114" s="3" t="s">
+      <c r="C114" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="2:6" hidden="1">
+      <c r="B115" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="2:6" hidden="1">
+      <c r="B116" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="2:6" hidden="1">
+      <c r="B117" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="B115" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
-      <c r="B116" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4">
-      <c r="B117" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118" s="7" t="s">
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="2:6" hidden="1">
+      <c r="B119" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="2:4" hidden="1">
-      <c r="B119" s="3" t="s">
+      <c r="C119" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
-      <c r="B120" s="3" t="s">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="2:6" hidden="1">
+      <c r="B121" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="2:6" hidden="1">
+      <c r="B122" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D120"/>
-    </row>
-    <row r="121" spans="2:4" hidden="1">
-      <c r="B121" s="3" t="s">
+      <c r="C122" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="2:6" hidden="1">
+      <c r="B123" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="2:6" hidden="1">
+      <c r="B124" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="2:6" hidden="1">
+      <c r="B125" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" hidden="1">
+      <c r="B128" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1">
+      <c r="B129" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="B130" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="B131" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="B132" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" hidden="1">
+      <c r="B133" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="B134" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F134" s="30"/>
+    </row>
+    <row r="135" spans="1:6" hidden="1">
+      <c r="B135" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" hidden="1">
-      <c r="B122" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" hidden="1">
-      <c r="B123" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" hidden="1">
-      <c r="B124" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" hidden="1">
-      <c r="B125" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4">
-      <c r="B126" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4">
-      <c r="B127" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4">
-      <c r="B128" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="B129" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="B130" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="B131" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="B132" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" hidden="1">
-      <c r="B133" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="B134" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="B135" s="3" t="s">
+      <c r="C135" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="B136" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="B136" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1">
+    <row r="137" spans="1:6" hidden="1">
       <c r="B137" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" hidden="1">
+      <c r="B138" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1">
-      <c r="B138" s="3" t="s">
+      <c r="C138" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="B139" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" hidden="1">
+      <c r="A140" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="B139" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="3" t="s">
+      <c r="C140" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1">
+      <c r="A141" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="C141" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1">
+      <c r="A142" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1">
-      <c r="A141" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B141" s="7" t="s">
+      <c r="B142" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1">
-      <c r="A142" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B142" s="7" t="s">
+      <c r="C142" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="B143" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="B143" s="7" t="s">
+      <c r="F143" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1">
+      <c r="A144" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1">
-      <c r="A144" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="C144" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="B145" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="B145" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" hidden="1">
+    </row>
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B147" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="B148" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="B148" s="3" t="s">
+    <row r="149" spans="1:6" hidden="1">
+      <c r="B149" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" hidden="1">
+      <c r="A150" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1">
-      <c r="B149" s="3" t="s">
+      <c r="C150" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" hidden="1">
+      <c r="B151" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="B151" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="C151" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:6">
       <c r="B152" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="B153" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="B153" s="30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1">
       <c r="B154" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3">
-      <c r="B161" s="38"/>
-      <c r="C161" s="39"/>
+        <v>373</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="B155" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="B156" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1">
+      <c r="B157" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1">
+      <c r="B158" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="B159" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1">
+      <c r="B160" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C161" s="34"/>
+    </row>
+    <row r="162" spans="2:6" hidden="1">
+      <c r="B162" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="2:6" hidden="1">
+      <c r="B163" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="2:6" hidden="1">
+      <c r="B164" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" hidden="1">
+      <c r="B166" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="2:6" hidden="1">
+      <c r="B167" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="2:6" hidden="1">
+      <c r="B168" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="2:6" hidden="1">
+      <c r="B169" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" hidden="1">
+      <c r="B171" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D171" s="37">
+        <v>42956</v>
+      </c>
+      <c r="E171" s="38">
+        <v>4.3750000000000004E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" hidden="1">
+      <c r="B172" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D173" s="40"/>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" hidden="1">
+      <c r="B177" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" hidden="1">
+      <c r="B179" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D179" s="40">
+        <v>42956</v>
+      </c>
+      <c r="E179" s="41">
+        <v>0.68888888888888899</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" hidden="1">
+      <c r="B180" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D180" s="40">
+        <v>42957</v>
+      </c>
+      <c r="E180" s="41">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F180" s="36"/>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" s="3" t="s">
+        <v>428</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D153">
+  <autoFilter ref="A1:K180">
     <filterColumn colId="2">
-      <filters blank="1">
+      <filters>
         <filter val="pendding"/>
-        <filter val="proceeding"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D64" r:id="rId1" location="/apply_borrow?uniqueId=gds333"/>
-    <hyperlink ref="D75" location="fig!A1" display="图"/>
+    <hyperlink ref="F64" r:id="rId1" location="/apply_borrow?uniqueId=gds333"/>
+    <hyperlink ref="F75" location="fig!A1" display="图"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6367,7 +7342,7 @@
           <x14:formula1>
             <xm:f>status!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C160 C162:C1048576</xm:sqref>
+          <xm:sqref>C162:C1048576 C1:C160</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6377,6 +7352,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6393,7 +7369,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
@@ -6446,6 +7422,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6466,6 +7443,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -6478,27 +7456,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="12" spans="2:8">
       <c r="E12" t="s">
@@ -6519,6 +7497,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -6528,36 +7507,36 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="J2" s="27" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="J2" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="10" spans="2:12">
       <c r="E10" t="s">
@@ -6582,6 +7561,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6611,6 +7591,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -29,16 +29,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$K$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">proceding!$A$1:$K$194</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">小禾微贷!$A$5:$F$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="446">
   <si>
     <t>基本信息</t>
   </si>
@@ -2140,147 +2139,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>貌似解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkFilled after post successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款超市 验证条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款超市 头像上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lend_apply 页面 如果已成为贷款超市，显示list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据魔盒定时请求，查看是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essential / optional config 合并，内部表示是否必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并之后有问题啊。。。 首页无法获取啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款超市 提交页面 滚动问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过贷款超市发起申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option 组件用原生，样式重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请借款时 判断是贷款超市，显示贷款超市信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过marketId进入，显示贷款超市的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借贷宝，今借到，无忧借条，速速借及其它 放款平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人分享放贷，提交参数 标识分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据魔盒的callback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session Storage 解决芝麻和数据魔盒的跳转问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_info 开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reapply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyRecord.status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1/2/3/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符 路由，取代 query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止贷款超市重复申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负债调查 必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定贷款超市的申请结果 和意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放贷超市 option 10px以下字体样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply borrow 里面加入是否有申请的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个项目填写完成后，check了所有认证项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过申请记录 列表查看申请状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构apply_borrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo 加说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo上传 简化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款超市 | 个人信用评估   PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款超市 申请放到 一级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证上传简化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqueId 不展示手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请记录的金额显示问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简借的小禾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter 全局化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请条件+最低分数显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请后页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>微信分享 checkSession中配置无效，setInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>貌似解决了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkFilled after post successfully</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷款超市 验证条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷款超市 头像上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lend_apply 页面 如果已成为贷款超市，显示list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>market list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据魔盒定时请求，查看是否完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>essential / optional config 合并，内部表示是否必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并之后有问题啊。。。 首页无法获取啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷款超市 提交页面 滚动问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过贷款超市发起申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option 组件用原生，样式重写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请借款时 判断是贷款超市，显示贷款超市信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过marketId进入，显示贷款超市的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借贷宝，今借到，无忧借条，速速借及其它 放款平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人分享放贷，提交参数 标识分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据魔盒的callback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>session Storage 解决芝麻和数据魔盒的跳转问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>job_info 开放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reapply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyRecord.status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/1/2/3/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位符 路由，取代 query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻止贷款超市重复申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负债调查 必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定贷款超市的申请结果 和意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放贷超市 option 10px以下字体样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply borrow 里面加入是否有申请的判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个项目填写完成后，check了所有认证项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>贷款超市显示联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请加入金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上10.00到早上八点自动把更多借款的按钮放上</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2440,6 +2506,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2582,7 +2656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2723,6 +2797,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5374,7 +5451,7 @@
         <v>378</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>379</v>
@@ -5437,7 +5514,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5447,18 +5524,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" t="s">
         <v>416</v>
-      </c>
-      <c r="B1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" t="s">
         <v>418</v>
-      </c>
-      <c r="B2" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -5470,11 +5547,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B187" sqref="B187"/>
+      <selection pane="bottomLeft" activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5482,8 +5559,8 @@
     <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="3.81640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="4.26953125" style="39" customWidth="1"/>
     <col min="6" max="6" width="85" style="3" customWidth="1"/>
     <col min="7" max="7" width="84.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -5500,10 +5577,10 @@
         <v>171</v>
       </c>
       <c r="D1" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>422</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>423</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>172</v>
@@ -6821,9 +6898,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" hidden="1">
       <c r="B127" s="3" t="s">
         <v>297</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="2:6" hidden="1">
@@ -6849,9 +6929,12 @@
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="B130" s="3" t="s">
         <v>301</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>302</v>
@@ -6971,7 +7054,7 @@
         <v>327</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1">
@@ -7059,7 +7142,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="B152" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7112,7 +7195,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="B159" s="3" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>394</v>
@@ -7120,7 +7203,7 @@
     </row>
     <row r="160" spans="1:6" hidden="1">
       <c r="B160" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>81</v>
@@ -7130,13 +7213,13 @@
     </row>
     <row r="161" spans="2:6">
       <c r="B161" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C161" s="34"/>
     </row>
     <row r="162" spans="2:6" hidden="1">
       <c r="B162" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>193</v>
@@ -7146,7 +7229,7 @@
     </row>
     <row r="163" spans="2:6" hidden="1">
       <c r="B163" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>81</v>
@@ -7156,7 +7239,7 @@
     </row>
     <row r="164" spans="2:6" hidden="1">
       <c r="B164" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>81</v>
@@ -7166,15 +7249,15 @@
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F165" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="166" spans="2:6" hidden="1">
       <c r="B166" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>81</v>
@@ -7184,7 +7267,7 @@
     </row>
     <row r="167" spans="2:6" hidden="1">
       <c r="B167" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>81</v>
@@ -7194,7 +7277,7 @@
     </row>
     <row r="168" spans="2:6" hidden="1">
       <c r="B168" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>81</v>
@@ -7204,7 +7287,7 @@
     </row>
     <row r="169" spans="2:6" hidden="1">
       <c r="B169" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>81</v>
@@ -7212,17 +7295,17 @@
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="2:6" hidden="1">
       <c r="B171" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>81</v>
@@ -7236,7 +7319,7 @@
     </row>
     <row r="172" spans="2:6" hidden="1">
       <c r="B172" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>81</v>
@@ -7244,20 +7327,23 @@
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="2:6">
+    <row r="173" spans="2:6" hidden="1">
       <c r="B173" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D173" s="40"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>118</v>
@@ -7265,15 +7351,15 @@
     </row>
     <row r="176" spans="2:6">
       <c r="B176" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="2:6" hidden="1">
+    <row r="177" spans="1:6" hidden="1">
       <c r="B177" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>81</v>
@@ -7281,14 +7367,14 @@
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="2:6">
-      <c r="B178" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" hidden="1">
+    <row r="178" spans="1:6">
+      <c r="B178" s="47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" hidden="1">
       <c r="B179" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>81</v>
@@ -7300,9 +7386,9 @@
         <v>0.68888888888888899</v>
       </c>
     </row>
-    <row r="180" spans="2:6" hidden="1">
+    <row r="180" spans="1:6" hidden="1">
       <c r="B180" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>81</v>
@@ -7315,15 +7401,173 @@
       </c>
       <c r="F180" s="36"/>
     </row>
-    <row r="182" spans="2:6">
+    <row r="181" spans="1:6">
+      <c r="B181" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="B182" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="B183" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" hidden="1">
+      <c r="B184" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" hidden="1">
+      <c r="B185" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" hidden="1">
+      <c r="B186" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D186" s="40">
+        <v>42959</v>
+      </c>
+      <c r="E186" s="41">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" hidden="1">
+      <c r="B187" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D187" s="40">
+        <v>42960</v>
+      </c>
+      <c r="E187" s="41">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" hidden="1">
+      <c r="B188" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D188" s="40">
+        <v>42960</v>
+      </c>
+      <c r="E188" s="41">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" hidden="1">
+      <c r="A189" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D189" s="40">
+        <v>42960</v>
+      </c>
+      <c r="E189" s="41">
+        <v>0.10972222222222222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" hidden="1">
+      <c r="B190" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D190" s="40">
+        <v>42960</v>
+      </c>
+      <c r="E190" s="41">
+        <v>0.52638888888888891</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="B191" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="B192" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D192" s="40">
+        <v>42961</v>
+      </c>
+      <c r="E192" s="41">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" hidden="1">
+      <c r="B193" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D193" s="40">
+        <v>42961</v>
+      </c>
+      <c r="E193" s="41">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D194" s="40">
+        <v>42962</v>
+      </c>
+      <c r="E194" s="41">
+        <v>2.8472222222222222E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K180">
+  <autoFilter ref="A1:K194">
     <filterColumn colId="2">
-      <filters>
+      <filters blank="1">
         <filter val="pendding"/>
       </filters>
     </filterColumn>
@@ -7342,7 +7586,7 @@
           <x14:formula1>
             <xm:f>status!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C162:C1048576 C1:C160</xm:sqref>
+          <xm:sqref>C1:C160 C162:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -2340,6 +2340,7 @@
   </si>
   <si>
     <t>晚上10.00到早上八点自动把更多借款的按钮放上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2783,6 +2784,9 @@
     <xf numFmtId="20" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2797,9 +2801,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4882,12 +4883,12 @@
       </c>
     </row>
     <row r="24" spans="25:30">
-      <c r="AA24" s="46" t="s">
+      <c r="AA24" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
     </row>
     <row r="28" spans="25:30">
       <c r="Z28" s="28" t="s">
@@ -4903,43 +4904,43 @@
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="46"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
       <c r="S40" s="27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
       <c r="R41" s="27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
       <c r="Q42" s="27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
       <c r="G43" s="27" t="s">
         <v>342</v>
       </c>
@@ -4951,8 +4952,8 @@
       </c>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
       <c r="G44" s="27" t="s">
         <v>341</v>
       </c>
@@ -4965,16 +4966,16 @@
       <c r="O44" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="AA44" s="46" t="s">
+      <c r="AA44" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
       <c r="K45" s="29" t="s">
         <v>340</v>
       </c>
@@ -4987,8 +4988,8 @@
       </c>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
       <c r="K46" s="29" t="s">
         <v>340</v>
       </c>
@@ -5001,8 +5002,8 @@
       </c>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
       <c r="K47" s="29" t="s">
         <v>340</v>
       </c>
@@ -5015,8 +5016,8 @@
       </c>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
       <c r="K48" s="29" t="s">
         <v>340</v>
       </c>
@@ -5029,8 +5030,8 @@
       </c>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
       <c r="K49" s="29" t="s">
         <v>340</v>
       </c>
@@ -5046,8 +5047,8 @@
       </c>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
       <c r="K50" s="29" t="s">
         <v>340</v>
       </c>
@@ -5063,8 +5064,8 @@
       </c>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
       <c r="K51" s="29" t="s">
         <v>340</v>
       </c>
@@ -5074,8 +5075,8 @@
       </c>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
       <c r="K52" s="29" t="s">
         <v>340</v>
       </c>
@@ -5144,59 +5145,59 @@
       </c>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="B60" s="45"/>
+      <c r="B60" s="46"/>
       <c r="N60" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
       <c r="N61" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
       <c r="N62" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
       <c r="N63" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
       <c r="N64" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
       <c r="N65" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
       <c r="N66" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
       <c r="M67" s="27" t="s">
         <v>341</v>
       </c>
@@ -5226,28 +5227,28 @@
       </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5550,8 +5551,8 @@
   <dimension ref="A1:K197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D195" sqref="D195"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -7368,7 +7369,7 @@
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="B178" s="47" t="s">
+      <c r="B178" s="42" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7567,7 +7568,7 @@
   </sheetData>
   <autoFilter ref="A1:K194">
     <filterColumn colId="2">
-      <filters blank="1">
+      <filters>
         <filter val="pendding"/>
       </filters>
     </filterColumn>
@@ -7700,27 +7701,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="12" spans="2:8">
       <c r="E12" t="s">
@@ -7751,36 +7752,36 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="J2" s="42" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="J2" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="10" spans="2:12">
       <c r="E10" t="s">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="444">
   <si>
     <t>基本信息</t>
   </si>
@@ -2331,15 +2331,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贷款超市显示联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请加入金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上10.00到早上八点自动把更多借款的按钮放上</t>
+    <t>小禾 禾掌柜 拆fen不同的repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2783,6 +2776,9 @@
     <xf numFmtId="20" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2797,9 +2793,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4882,12 +4875,12 @@
       </c>
     </row>
     <row r="24" spans="25:30">
-      <c r="AA24" s="46" t="s">
+      <c r="AA24" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
     </row>
     <row r="28" spans="25:30">
       <c r="Z28" s="28" t="s">
@@ -4903,43 +4896,43 @@
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="46"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
       <c r="S40" s="27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
       <c r="R41" s="27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
       <c r="Q42" s="27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
       <c r="G43" s="27" t="s">
         <v>342</v>
       </c>
@@ -4951,8 +4944,8 @@
       </c>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
       <c r="G44" s="27" t="s">
         <v>341</v>
       </c>
@@ -4965,16 +4958,16 @@
       <c r="O44" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="AA44" s="46" t="s">
+      <c r="AA44" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
       <c r="K45" s="29" t="s">
         <v>340</v>
       </c>
@@ -4987,8 +4980,8 @@
       </c>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
       <c r="K46" s="29" t="s">
         <v>340</v>
       </c>
@@ -5001,8 +4994,8 @@
       </c>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
       <c r="K47" s="29" t="s">
         <v>340</v>
       </c>
@@ -5015,8 +5008,8 @@
       </c>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
       <c r="K48" s="29" t="s">
         <v>340</v>
       </c>
@@ -5029,8 +5022,8 @@
       </c>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
       <c r="K49" s="29" t="s">
         <v>340</v>
       </c>
@@ -5046,8 +5039,8 @@
       </c>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
       <c r="K50" s="29" t="s">
         <v>340</v>
       </c>
@@ -5063,8 +5056,8 @@
       </c>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
       <c r="K51" s="29" t="s">
         <v>340</v>
       </c>
@@ -5074,8 +5067,8 @@
       </c>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
       <c r="K52" s="29" t="s">
         <v>340</v>
       </c>
@@ -5144,59 +5137,59 @@
       </c>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="B60" s="45"/>
+      <c r="B60" s="46"/>
       <c r="N60" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
       <c r="N61" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
       <c r="N62" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
       <c r="N63" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
       <c r="N64" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
       <c r="N65" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
       <c r="N66" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
       <c r="M67" s="27" t="s">
         <v>341</v>
       </c>
@@ -5226,28 +5219,28 @@
       </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5547,11 +5540,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D195" sqref="D195"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -7368,7 +7361,7 @@
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="B178" s="47" t="s">
+      <c r="B178" s="42" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7549,25 +7542,15 @@
         <v>2.8472222222222222E-2</v>
       </c>
     </row>
-    <row r="195" spans="2:5">
-      <c r="B195" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
     <row r="196" spans="2:5">
       <c r="B196" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5">
-      <c r="B197" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K194">
     <filterColumn colId="2">
-      <filters blank="1">
+      <filters>
         <filter val="pendding"/>
       </filters>
     </filterColumn>
@@ -7700,27 +7683,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="12" spans="2:8">
       <c r="E12" t="s">
@@ -7751,36 +7734,36 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="J2" s="42" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="J2" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="10" spans="2:12">
       <c r="E10" t="s">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="444">
   <si>
     <t>基本信息</t>
   </si>
@@ -2331,15 +2331,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贷款超市显示联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请加入金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上10.00到早上八点自动把更多借款的按钮放上</t>
+    <t>小禾 禾掌柜 拆fen不同的repository</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5548,11 +5540,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B199" sqref="B199"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -7550,19 +7542,12 @@
         <v>2.8472222222222222E-2</v>
       </c>
     </row>
-    <row r="195" spans="2:5">
-      <c r="B195" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
     <row r="196" spans="2:5">
       <c r="B196" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5">
-      <c r="B197" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
